--- a/media/1.xlsx
+++ b/media/1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>col1</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>v56</t>
+  </si>
+  <si>
+    <t>v344</t>
+  </si>
+  <si>
+    <t>v59</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -569,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -642,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
